--- a/codes/test_shell_output/testall_charOut_2.xlsx
+++ b/codes/test_shell_output/testall_charOut_2.xlsx
@@ -348,22 +348,22 @@
   <sheetData>
     <row r="6" spans="2:2">
       <c r="B6">
-        <v>15.27651858567543</v>
+        <v>17.0338441890166</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9">
-        <v>46.01087941976428</v>
+        <v>50.46296296296296</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12">
-        <v>20.35358114233908</v>
+        <v>18.8058748403576</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15">
-        <v>16.00181323662738</v>
+        <v>11.94125159642401</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_charOut_2.xlsx
+++ b/codes/test_shell_output/testall_charOut_2.xlsx
@@ -348,22 +348,22 @@
   <sheetData>
     <row r="6" spans="2:2">
       <c r="B6">
-        <v>17.0338441890166</v>
+        <v>15.83476764199656</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9">
-        <v>50.46296296296296</v>
+        <v>46.98795180722891</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12">
-        <v>18.8058748403576</v>
+        <v>20.41933969644813</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15">
-        <v>11.94125159642401</v>
+        <v>14.89594742606791</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testall_charOut_2.xlsx
+++ b/codes/test_shell_output/testall_charOut_2.xlsx
@@ -348,22 +348,22 @@
   <sheetData>
     <row r="6" spans="2:2">
       <c r="B6">
-        <v>15.83476764199656</v>
+        <v>16.62030598052851</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9">
-        <v>46.98795180722891</v>
+        <v>47.14881780250348</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12">
-        <v>20.41933969644813</v>
+        <v>21.27955493741307</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15">
-        <v>14.89594742606791</v>
+        <v>14.15159944367177</v>
       </c>
     </row>
   </sheetData>
